--- a/export_petanca.xlsx
+++ b/export_petanca.xlsx
@@ -1,25 +1,156 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Desktop/PROGRAMACION/PYTHON/Mis_Proyectos/Petanca/Petanca_streamlit/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36453AB7-DDEB-914D-B681-5558D6D8EC3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="24040" yWindow="3100" windowWidth="15920" windowHeight="14860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="players" sheetId="1" r:id="rId1"/>
+    <sheet name="matches" sheetId="2" r:id="rId2"/>
+    <sheet name="teams" sheetId="3" r:id="rId3"/>
+    <sheet name="teams_players" sheetId="4" r:id="rId4"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>photo_path</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge </t>
+  </si>
+  <si>
+    <t>Jiménez</t>
+  </si>
+  <si>
+    <t>resources/users_photo</t>
+  </si>
+  <si>
+    <t>2025-05-20 20:08:01</t>
+  </si>
+  <si>
+    <t>Maripaz</t>
+  </si>
+  <si>
+    <t>Raya</t>
+  </si>
+  <si>
+    <t>2025-05-20 20:08:08</t>
+  </si>
+  <si>
+    <t>Rafa</t>
+  </si>
+  <si>
+    <t>2025-05-20 20:08:14</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Rae</t>
+  </si>
+  <si>
+    <t>2025-05-20 20:08:26</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>duracion</t>
+  </si>
+  <si>
+    <t>puntos_equipo1</t>
+  </si>
+  <si>
+    <t>puntos_equipo2</t>
+  </si>
+  <si>
+    <t>ganador</t>
+  </si>
+  <si>
+    <t>2025-05-20 20:09:10</t>
+  </si>
+  <si>
+    <t>Equipo 1</t>
+  </si>
+  <si>
+    <t>2025-05-20 20:09:28</t>
+  </si>
+  <si>
+    <t>Equipo 2</t>
+  </si>
+  <si>
+    <t>2025-05-20 20:09:47</t>
+  </si>
+  <si>
+    <t>2025-05-20 20:09:57</t>
+  </si>
+  <si>
+    <t>2025-05-20 20:10:12</t>
+  </si>
+  <si>
+    <t>partida_id</t>
+  </si>
+  <si>
+    <t>equipo_numero</t>
+  </si>
+  <si>
+    <t>equipo_id</t>
+  </si>
+  <si>
+    <t>jugador_id</t>
+  </si>
+</sst>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,85 +158,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -390,4 +480,610 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>